--- a/AppBuilderCertificationPathSchedule.xlsx
+++ b/AppBuilderCertificationPathSchedule.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="OVERVIEW" sheetId="6" r:id="rId1"/>
     <sheet name="CERTIFICATION PATH" sheetId="7" r:id="rId2"/>
     <sheet name="試験範囲_EXAM OUTLINE" sheetId="1" r:id="rId3"/>
+    <sheet name="TIP_01" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="136">
   <si>
     <t>小計</t>
   </si>
@@ -457,26 +458,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Akihabara Showadoriguchi Test Center/テストセンター秋葉原昭和通</t>
-  </si>
-  <si>
-    <t>Asakaze- sometsune Bldg 3F, 55 Kanda Sakuma gashi</t>
-  </si>
-  <si>
-    <t>千代田区神田佐久間河岸55 , 朝風染常ビル3F</t>
-  </si>
-  <si>
-    <t>Chiyoda-ku/千代田区, Tôkyô [Tokyo] 101-0026</t>
-  </si>
-  <si>
-    <t>Location: [ Change ] </t>
-  </si>
-  <si>
     <t>The Salesforce Certified Platform App Builder credential is designed for those who can design, build, and implement custom apps using the declarative customization capabilities of the Force.com platform.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>105 minutes</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -490,33 +472,90 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>15:00 (UTC+09:00)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">un: app_builder@truongdv.bip.jp </t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Schedule :  Wednesday, 31 October 2018</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>Exam:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Salesforce Certified Platform App Builder (SP18)</t>
-    </r>
+    <t>https://www.simplilearn.com/salesforce-app-builder-exam-free-practice-test</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://jennamolby.com/salesforce-certified-platform-app-builder-practice-exam/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Posted on: 15/03/2018</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60 Questions,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>– Be sure to know most considerations for field update actions, especially whenever the update is triggered by a workflow or a process.</t>
+  </si>
+  <si>
+    <t>– Questions about field type change may be different than “will it cause data loss?”, more like “what may you loose (pick two)”</t>
+  </si>
+  <si>
+    <t>– I expected more questions on sandboxes, change sets, Salesforce1, actions/buttons/links. Got a couple of each at most.</t>
+  </si>
+  <si>
+    <t>– Review the classics: rollup summary fields, record types, report charts, object/record access, relationships etc.</t>
+  </si>
+  <si>
+    <t>http://sfdcstudy.org/platform-app-builder-quizzes/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40 Questions,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Read every topics of Study Guide minutely from Salesforce help.</t>
+  </si>
+  <si>
+    <t>Questions come from almost all the topics of study guide.</t>
+  </si>
+  <si>
+    <t>If you don’t know the right answer, no worries; search for the wrong one, it will clear off your confusion.</t>
+  </si>
+  <si>
+    <t>Practice these things in Trailhead. It is the best way for preparation of the certification exams. Keep trailing.</t>
+  </si>
+  <si>
+    <t>Finally read these quizzes. There will have some common questions from here</t>
+  </si>
+  <si>
+    <t>http://blog.duttasourav.com/cleared-salesforce-platform-app-builder-certification-sharing-experience/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.salesforceben.com/platform-app-builder-certification-guide-tips/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://sfdcstudy.org/dev-401-certification/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4. PRACTICE EXAM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3. TIPS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.salesforceben.com/platform-app-builder-certification-guide-tips/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.cram.com/flashcards/memorize/salesforce-platform-app-builder-exam-344-8215910</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://quizlet.com/subject/Salesforce-Certified-Platform-App-Builder/</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -595,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,12 +707,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1002,6 +1035,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,10 +1126,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1114,6 +1147,150 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8596312" y="1905001"/>
+          <a:ext cx="5774532" cy="1512094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Exam: Salesforce Certified Platform App Builder (SP18)		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Schedule :  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Wednesday, 31 October 2018	15:00 (UTC+09:00)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t> 105 minutes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Location: [ Change ] 		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Akihabara Showadoriguchi Test Center/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テストセンター秋葉原昭和通		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Asakaze- sometsune Bldg 3F, 55 Kanda Sakuma gashi	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>千代田区神田佐久間河岸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>55 , </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>朝風染常ビル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3F	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	Chiyoda-ku/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>千代田区</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>, Tôkyô [Tokyo] 101-0026	</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1403,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1602,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1498,100 +1675,127 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C27" s="88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C30" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="80"/>
+      <c r="C31" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C32" s="88" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" s="119"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C31" s="80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C32" s="80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="80" t="s">
-        <v>112</v>
+      <c r="I32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="80"/>
+      <c r="C33" s="88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C34" s="88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C35" s="88" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1"/>
+    <hyperlink ref="C30" r:id="rId2"/>
+    <hyperlink ref="C31" r:id="rId3"/>
+    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C33" r:id="rId5"/>
+    <hyperlink ref="C27" r:id="rId6"/>
+    <hyperlink ref="C34" r:id="rId7"/>
+    <hyperlink ref="C35" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1603,7 +1807,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,39 +1828,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="97" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="99" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="99" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="26" t="s">
         <v>60</v>
       </c>
@@ -1675,14 +1879,14 @@
       <c r="I2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="2">
@@ -1714,7 +1918,7 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B17" si="0">(IF(A4&lt;&gt;"",1,B3+1))</f>
         <v>2</v>
@@ -1741,7 +1945,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="93"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1768,7 +1972,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1795,7 +1999,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1820,7 +2024,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="91" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="78">
@@ -1849,7 +2053,7 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="78">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1876,7 +2080,7 @@
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="78">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1903,7 +2107,7 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="90"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="78">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1930,7 +2134,7 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="90"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1957,7 +2161,7 @@
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="78">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1984,7 +2188,7 @@
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="96" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="79">
@@ -2013,7 +2217,7 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="95"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="79">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2040,7 +2244,7 @@
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2067,7 +2271,7 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="96"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="79">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2094,11 +2298,11 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="33"/>
       <c r="E18" s="29">
         <f>SUM(E3:E17)</f>
@@ -2150,10 +2354,10 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2173,39 +2377,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="116" t="s">
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="116" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="118" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="116" t="s">
+      <c r="L1" s="118" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
@@ -2224,17 +2428,17 @@
       <c r="I2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="119"/>
       <c r="K2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="117"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="102">
+      <c r="B3" s="104">
         <v>8</v>
       </c>
       <c r="C3" s="38" t="s">
@@ -2263,8 +2467,8 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="114"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="38" t="s">
         <v>14</v>
       </c>
@@ -2289,8 +2493,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="114"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="38" t="s">
         <v>15</v>
       </c>
@@ -2315,10 +2519,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="105">
+      <c r="B6" s="107">
         <v>20</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -2343,8 +2547,8 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="115"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="72" t="s">
         <v>18</v>
       </c>
@@ -2367,8 +2571,8 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="115"/>
-      <c r="B8" s="105"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="72" t="s">
         <v>19</v>
       </c>
@@ -2391,8 +2595,8 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="115"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="72" t="s">
         <v>20</v>
       </c>
@@ -2415,8 +2619,8 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="115"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="72" t="s">
         <v>45</v>
       </c>
@@ -2439,8 +2643,8 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="115"/>
-      <c r="B11" s="105"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="72" t="s">
         <v>21</v>
       </c>
@@ -2463,8 +2667,8 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="115"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="72" t="s">
         <v>22</v>
       </c>
@@ -2487,10 +2691,10 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="108">
         <v>10</v>
       </c>
       <c r="C13" s="73" t="s">
@@ -2515,8 +2719,8 @@
       <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="113"/>
-      <c r="B14" s="106"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="73" t="s">
         <v>25</v>
       </c>
@@ -2539,14 +2743,14 @@
       <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="110">
         <v>27</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D15" s="63">
         <v>43283</v>
@@ -2567,8 +2771,8 @@
       <c r="L15" s="67"/>
     </row>
     <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="68" t="s">
         <v>27</v>
       </c>
@@ -2591,8 +2795,8 @@
       <c r="L16" s="67"/>
     </row>
     <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="68" t="s">
         <v>28</v>
       </c>
@@ -2615,8 +2819,8 @@
       <c r="L17" s="67"/>
     </row>
     <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="68" t="s">
         <v>29</v>
       </c>
@@ -2639,8 +2843,8 @@
       <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="107"/>
-      <c r="B19" s="108"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="68" t="s">
         <v>30</v>
       </c>
@@ -2663,8 +2867,8 @@
       <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="68" t="s">
         <v>31</v>
       </c>
@@ -2687,8 +2891,8 @@
       <c r="L20" s="67"/>
     </row>
     <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="68" t="s">
         <v>32</v>
       </c>
@@ -2711,8 +2915,8 @@
       <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="68" t="s">
         <v>33</v>
       </c>
@@ -2763,10 +2967,10 @@
       <c r="L23" s="52"/>
     </row>
     <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="110">
+      <c r="A24" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="112">
         <v>14</v>
       </c>
       <c r="C24" s="69" t="s">
@@ -2791,8 +2995,8 @@
       <c r="L24" s="62"/>
     </row>
     <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="109"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="69" t="s">
         <v>37</v>
       </c>
@@ -2815,8 +3019,8 @@
       <c r="L25" s="62"/>
     </row>
     <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="109"/>
-      <c r="B26" s="110"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="69" t="s">
         <v>38</v>
       </c>
@@ -2839,8 +3043,8 @@
       <c r="L26" s="62"/>
     </row>
     <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="109"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="69" t="s">
         <v>39</v>
       </c>
@@ -2891,10 +3095,10 @@
       <c r="L28" s="57"/>
     </row>
     <row r="29" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="112">
+      <c r="B29" s="114">
         <v>5</v>
       </c>
       <c r="C29" s="70" t="s">
@@ -2919,8 +3123,8 @@
       <c r="L29" s="57"/>
     </row>
     <row r="30" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="111"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="70" t="s">
         <v>44</v>
       </c>
@@ -2943,10 +3147,10 @@
       <c r="L30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="101">
+      <c r="B31" s="103">
         <v>8</v>
       </c>
       <c r="C31" s="71" t="s">
@@ -2971,8 +3175,8 @@
       <c r="L31" s="52"/>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="71" t="s">
         <v>48</v>
       </c>
@@ -2995,8 +3199,8 @@
       <c r="L32" s="52"/>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="100"/>
-      <c r="B33" s="101"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="71" t="s">
         <v>49</v>
       </c>
@@ -3019,8 +3223,8 @@
       <c r="L33" s="52"/>
     </row>
     <row r="34" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="100"/>
-      <c r="B34" s="101"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="71" t="s">
         <v>52</v>
       </c>
@@ -3043,8 +3247,8 @@
       <c r="L34" s="52"/>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="100"/>
-      <c r="B35" s="101"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="71" t="s">
         <v>50</v>
       </c>
@@ -3077,8 +3281,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C39" s="118" t="s">
-        <v>119</v>
+      <c r="C39" s="89" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3140,4 +3344,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>